--- a/Chapter_4/C_EM_Feature_Selection/lista.xlsx
+++ b/Chapter_4/C_EM_Feature_Selection/lista.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Store\PhdFinal\PhdThesisProg\Chapter_4\C_EM_Feature_Selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="90" windowWidth="18180" windowHeight="10875"/>
   </bookViews>
@@ -16,93 +21,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
-  <si>
-    <t>104 Vákuumlepárló Gőzfogyasztás</t>
-  </si>
-  <si>
-    <t>HX 150-I 150-II 150-III Hőfok különbség</t>
-  </si>
-  <si>
-    <t>107 Stabilizáló Kiforraló Hőmérséklet</t>
-  </si>
-  <si>
-    <t>HX 153-I 153-II Hőfok különbség</t>
-  </si>
-  <si>
-    <t>HX 159-I 159-II Hőfok különbség</t>
-  </si>
-  <si>
-    <t>102 Főlepárló Reflux arány</t>
-  </si>
-  <si>
-    <t>102 Cirk-II Reflux</t>
-  </si>
-  <si>
-    <t>101 Előlepárló Fenékhőfok</t>
-  </si>
-  <si>
-    <t>HX 162-I 162-II 162-III 162-IV 162-V 162-VI Hőfok különbség</t>
-  </si>
-  <si>
-    <t>230 kemence huzat</t>
-  </si>
-  <si>
-    <t>109 Kemence hatékonyság</t>
-  </si>
-  <si>
-    <t>HX 152-I 152-II Hőfok különbség</t>
-  </si>
-  <si>
-    <t>108 1-2 kilépő hőmérséklet különbség</t>
-  </si>
-  <si>
-    <t>230 Kemence Fogyasztás</t>
-  </si>
-  <si>
-    <t>104 Vákuumlepárló COT</t>
-  </si>
-  <si>
-    <t>110 Kemence hatékonyság</t>
-  </si>
-  <si>
-    <t>101 Előlepárló Fejnyomás</t>
-  </si>
-  <si>
-    <t>109 kemence huzat</t>
-  </si>
-  <si>
-    <t>Villamos energia</t>
-  </si>
-  <si>
-    <t>109 1-2 kilépő hőmérséklet különbség</t>
-  </si>
-  <si>
-    <t>110 1-2 kilépő hőmérséklet különbség</t>
-  </si>
-  <si>
-    <t>230 Kemence hatékonyság</t>
-  </si>
-  <si>
-    <t>Fűtőanyag Őrláng nélkül</t>
-  </si>
-  <si>
-    <t>HX 195 Hőfok különbség</t>
-  </si>
-  <si>
-    <t>107 Stabilizáló Fejnyomás</t>
-  </si>
-  <si>
-    <t>AV2 Üzem Gőztermelési</t>
-  </si>
-  <si>
-    <t>110 kemence huzat</t>
-  </si>
-  <si>
-    <t>102 Cirk-I Reflux</t>
-  </si>
-  <si>
-    <t>HX 150-IV Hőfok különbség</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>230KI1 KILEPO ALAPANYG 1</t>
+  </si>
+  <si>
+    <t>230KI2 KILEPO ALAPANYG 2</t>
+  </si>
+  <si>
+    <t>104-FEJ NYOMAS</t>
+  </si>
+  <si>
+    <t>110BE2 BELEPO 2-AG NYOMA</t>
+  </si>
+  <si>
+    <t>102-CRK2 REFLUX M3-H</t>
+  </si>
+  <si>
+    <t>230BE1 BELEPO ALAPANYG 1</t>
+  </si>
+  <si>
+    <t>101 FEJ REFLUX</t>
+  </si>
+  <si>
+    <t>Nox magas hatarertek</t>
+  </si>
+  <si>
+    <t>01013 tartály suruség</t>
+  </si>
+  <si>
+    <t>NAGYNYOM.GOZ 62-ES UTNAL</t>
+  </si>
+  <si>
+    <t>101 MNA PFPCT</t>
+  </si>
+  <si>
+    <t>108BE2 BELEPO ALAPANYAG2</t>
+  </si>
+  <si>
+    <t>102-CRK2 REFLUX VISSZA H</t>
+  </si>
+  <si>
+    <t>NPOD-MCS MEGCSAP HOMERS.</t>
+  </si>
+  <si>
+    <t>110 TUZTER NYOMAS SZAB.</t>
+  </si>
+  <si>
+    <t>109 FALAZAT HOFOK 1</t>
+  </si>
+  <si>
+    <t>109 FUTOOLAJ NYOMAS</t>
+  </si>
+  <si>
+    <t>109-KI 1-AG NYOMAS</t>
+  </si>
+  <si>
+    <t>109 TUZTER NYOMAS</t>
+  </si>
+  <si>
+    <t>MOP MEGCSAPOLAS</t>
+  </si>
+  <si>
+    <t>KOOLAJ 101 ELOMEL 2-AG</t>
+  </si>
+  <si>
+    <t>113-BNZN REFLUX HOMERS</t>
+  </si>
+  <si>
+    <t>110 FALAZAT HOFOK 3</t>
+  </si>
+  <si>
+    <t>RECVIZ NYOMAS</t>
+  </si>
+  <si>
+    <t>NPOD-KIT MENNY.</t>
+  </si>
+  <si>
+    <t>109 TULHEVITETT GOZ</t>
+  </si>
+  <si>
+    <t>VG0-KIT FILTERED VALUE</t>
+  </si>
+  <si>
+    <t>AV2 MUSZERLEVEGO NYOMAS</t>
+  </si>
+  <si>
+    <t>108 FUTOOL. NYOMAS SZAB.</t>
+  </si>
+  <si>
+    <t>NPOD-KIT</t>
+  </si>
+  <si>
+    <t>364 VENT.CSAPAGY HOFOK</t>
+  </si>
+  <si>
+    <t>109BE1 BELEPO ALAPANYG 1</t>
+  </si>
+  <si>
+    <t>110-TUZT HOMERS</t>
+  </si>
+  <si>
+    <t>124 BE FUTOGAZ</t>
+  </si>
+  <si>
+    <t>230 ALAPANYAG MENNY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101-REFL FEJ REFLUX </t>
+  </si>
+  <si>
+    <t>AV-2 FILT MF REFLUX FLOW</t>
+  </si>
+  <si>
+    <t>160 BELEPO NPOD HOMERS</t>
+  </si>
+  <si>
+    <t>NPOD-REF REFLUX M3-H</t>
+  </si>
+  <si>
+    <t>KOZPOD REFLUX</t>
   </si>
 </sst>
 </file>
@@ -150,6 +188,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,38 +491,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,111 +530,111 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
